--- a/data/modeling/reference_tables.xlsx
+++ b/data/modeling/reference_tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/678b5566332b316c/Documents/GitHub/Wine-Value-Projection/data/modeling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="122" documentId="8_{5C48B77D-64BD-464E-BE88-71196A58CBC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B9C636A-74BC-4C3F-B9BB-CDFEBDA48CB5}"/>
+  <xr:revisionPtr revIDLastSave="307" documentId="8_{5C48B77D-64BD-464E-BE88-71196A58CBC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8B29296D-4283-42EE-952A-2B86D34C00CE}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{2D9FD176-200F-4E14-A096-3DE8E96E382F}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="1" xr2:uid="{2D9FD176-200F-4E14-A096-3DE8E96E382F}"/>
   </bookViews>
   <sheets>
     <sheet name="Holdout Performance" sheetId="1" r:id="rId1"/>
@@ -37,17 +37,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
-  <si>
-    <t>XGBoost</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
   <si>
     <t>Lasso Regression</t>
   </si>
   <si>
-    <t>ExtraTrees</t>
-  </si>
-  <si>
     <t>Algorithm</t>
   </si>
   <si>
@@ -69,85 +63,121 @@
     <t>Importance Score</t>
   </si>
   <si>
-    <t>Sep_Max_Low_Humidity</t>
-  </si>
-  <si>
     <t>Nov_Min_High_Wind_Speed</t>
   </si>
   <si>
-    <t>Aug_Min_Low_Pressure</t>
-  </si>
-  <si>
     <t>May_Max_High_Humidity</t>
   </si>
   <si>
-    <t xml:space="preserve">Dec_Min_Low_Pressure </t>
-  </si>
-  <si>
     <t>Dec_Max_Low_Wind_Speed</t>
   </si>
   <si>
-    <t>Feb_Max_High_Temperature</t>
-  </si>
-  <si>
-    <t>Dec_Max_High_Wind_Speed</t>
-  </si>
-  <si>
-    <t>Sep_Avg_Low_Wind_Speed</t>
-  </si>
-  <si>
-    <t>May_Min_Low_ Dew_Point</t>
-  </si>
-  <si>
     <t>Feature Name</t>
   </si>
   <si>
     <t>Mar_Max_High_Wind_Speed</t>
   </si>
   <si>
-    <t>Oct_Min_High_Wind_Speed</t>
-  </si>
-  <si>
-    <t>Jul_Min_Low_Humidity</t>
-  </si>
-  <si>
-    <t>Oct_Avg_High_Wind_Speed</t>
-  </si>
-  <si>
-    <t>Jun_Avg_Low_Humidity</t>
-  </si>
-  <si>
-    <t>Jul_Max_Low_Wind_Speed</t>
-  </si>
-  <si>
-    <t>Jul_Min_Low_ Dew_Point</t>
-  </si>
-  <si>
-    <t>Dec_Min_High_Wind_Speed</t>
-  </si>
-  <si>
-    <t>Jun_Avg_Low_Temperature</t>
-  </si>
-  <si>
     <t>Oct_Min_Low_Temperature</t>
   </si>
   <si>
-    <t xml:space="preserve">Dec_Avg_High_ Dew_Point </t>
-  </si>
-  <si>
-    <t>Dec_Min_High_Humidity</t>
-  </si>
-  <si>
-    <t>Jun_Avg_High_Pressure</t>
-  </si>
-  <si>
-    <t>Dec_Avg_Low_Humidity</t>
-  </si>
-  <si>
-    <t>Dec_Avg_High_Pressure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dec_Min_High_Wind_Speed </t>
+    <t>Training</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>CV MSE</t>
+  </si>
+  <si>
+    <t>OLS Regression</t>
+  </si>
+  <si>
+    <t>Ridge Regression</t>
+  </si>
+  <si>
+    <t>ElasticNet Regression</t>
+  </si>
+  <si>
+    <t>Extra Trees Regressor</t>
+  </si>
+  <si>
+    <t>XGBoost Regressor</t>
+  </si>
+  <si>
+    <t>Aug_Max_High_Temperature</t>
+  </si>
+  <si>
+    <t>Mar_Min_Low_Temperature</t>
+  </si>
+  <si>
+    <t>Sep_Max_High_Humidity</t>
+  </si>
+  <si>
+    <t>Sep_Avg_Humidity</t>
+  </si>
+  <si>
+    <t>Jan_Min_Low_Wind_Speed</t>
+  </si>
+  <si>
+    <t>Mar_Avg_Low_ Dew_Point</t>
+  </si>
+  <si>
+    <t>Oct_Max_Low_Humidity</t>
+  </si>
+  <si>
+    <t>Jun_Min_High_ Dew_Point</t>
+  </si>
+  <si>
+    <t>Mar_Max_Low_Temperature</t>
+  </si>
+  <si>
+    <t>Nov_Avg_High_Wind_Speed</t>
+  </si>
+  <si>
+    <t>Feb_Avg_Low_Humidity</t>
+  </si>
+  <si>
+    <t>Dec_Avg_High_Humidity</t>
+  </si>
+  <si>
+    <t>Dec_Min_Low_Pressure</t>
+  </si>
+  <si>
+    <t>Nov_Avg_High_ Dew_Point</t>
+  </si>
+  <si>
+    <t>Jul_Avg_Low_Humidity</t>
+  </si>
+  <si>
+    <t>Apr_Total_Precipitation</t>
+  </si>
+  <si>
+    <t>Jun_Min_High_Wind_Speed</t>
+  </si>
+  <si>
+    <t>Aug_Min_Low_Temperature</t>
+  </si>
+  <si>
+    <t>Aug_Avg_Pressure</t>
+  </si>
+  <si>
+    <t>Oct_Avg_High_Humidity</t>
+  </si>
+  <si>
+    <t>Oct_Min_High_Temperature</t>
+  </si>
+  <si>
+    <t>Feb_Max_Low_Humidity</t>
+  </si>
+  <si>
+    <t>Apr_Min_Low_Wind_Speed</t>
+  </si>
+  <si>
+    <t>Aug_Min_High_Temperature</t>
+  </si>
+  <si>
+    <t>Oct_Avg_High_ Dew_Point</t>
   </si>
 </sst>
 </file>
@@ -155,10 +185,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.00000"/>
-    <numFmt numFmtId="169" formatCode="0.000000"/>
+    <numFmt numFmtId="165" formatCode="0.000000"/>
+    <numFmt numFmtId="170" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,7 +203,20 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -193,7 +236,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -285,74 +328,153 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -368,6 +490,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -667,130 +793,248 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDE6A364-9138-4185-A879-C75DC5FA9DC1}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H6"/>
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" customWidth="1"/>
-    <col min="5" max="6" width="7.7109375" customWidth="1"/>
-    <col min="7" max="7" width="7.85546875" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" style="35" customWidth="1"/>
+    <col min="4" max="6" width="6.28515625" style="35" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" style="35" customWidth="1"/>
+    <col min="8" max="8" width="7" style="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="14" t="s">
+    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="10"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="10"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="10"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="10"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="12"/>
+      <c r="B3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="F3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="G3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="H3" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="7">
-        <v>3.29352</v>
-      </c>
-      <c r="D3" s="7">
-        <v>1.81481</v>
-      </c>
-      <c r="E3" s="7">
-        <v>1.4380999999999999</v>
-      </c>
-      <c r="F3" s="12">
-        <v>4.9399999999999999E-3</v>
-      </c>
-      <c r="G3" s="13">
-        <v>1.255E-2</v>
-      </c>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="7">
-        <v>2.9336899999999999</v>
-      </c>
-      <c r="D4" s="7">
-        <v>1.7128000000000001</v>
-      </c>
-      <c r="E4" s="7">
-        <v>1.3575699999999999</v>
-      </c>
-      <c r="F4" s="7">
-        <v>0.11365</v>
-      </c>
-      <c r="G4" s="8">
-        <v>0.11700000000000001</v>
-      </c>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="9" t="s">
+      <c r="I3" s="10"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="12"/>
+      <c r="B4" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="24">
+        <v>3.48</v>
+      </c>
+      <c r="D4" s="25">
+        <v>3.67631097706446</v>
+      </c>
+      <c r="E4" s="25">
+        <v>1.91737085016552</v>
+      </c>
+      <c r="F4" s="25">
+        <v>1.5221165054931101</v>
+      </c>
+      <c r="G4" s="26">
+        <v>-0.110711583066746</v>
+      </c>
+      <c r="H4" s="27">
+        <v>-0.108278233167341</v>
+      </c>
+      <c r="I4" s="10"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="12"/>
+      <c r="B5" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="24">
+        <v>3.4359999999999999</v>
+      </c>
+      <c r="D5" s="25">
+        <v>3.56856115064704</v>
+      </c>
+      <c r="E5" s="25">
+        <v>1.8890635644803</v>
+      </c>
+      <c r="F5" s="25">
+        <v>1.5015933750427699</v>
+      </c>
+      <c r="G5" s="25">
+        <v>-7.8157487120590299E-2</v>
+      </c>
+      <c r="H5" s="28">
+        <v>-7.5889709489171703E-2</v>
+      </c>
+      <c r="I5" s="10"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="12"/>
+      <c r="B6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="10">
-        <v>2.8400500000000002</v>
-      </c>
-      <c r="D5" s="10">
-        <v>1.6852400000000001</v>
-      </c>
-      <c r="E5" s="10">
-        <v>1.3448100000000001</v>
-      </c>
-      <c r="F5" s="10">
-        <v>0.14194999999999999</v>
-      </c>
-      <c r="G5" s="11">
-        <v>0.14479</v>
-      </c>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="C6" s="24">
+        <v>3.2829999999999999</v>
+      </c>
+      <c r="D6" s="25">
+        <v>3.2501131502007499</v>
+      </c>
+      <c r="E6" s="25">
+        <v>1.8028070196781301</v>
+      </c>
+      <c r="F6" s="25">
+        <v>1.41420108586333</v>
+      </c>
+      <c r="G6" s="25">
+        <v>1.8054145928627498E-2</v>
+      </c>
+      <c r="H6" s="28">
+        <v>2.56669175075924E-2</v>
+      </c>
+      <c r="I6" s="10"/>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="12"/>
+      <c r="B7" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="29">
+        <v>3.1949999999999998</v>
+      </c>
+      <c r="D7" s="16">
+        <v>3.2374498983548401</v>
+      </c>
+      <c r="E7" s="16">
+        <v>1.7992914989947699</v>
+      </c>
+      <c r="F7" s="16">
+        <v>1.410669710933</v>
+      </c>
+      <c r="G7" s="30">
+        <v>2.1880052004659999E-2</v>
+      </c>
+      <c r="H7" s="31">
+        <v>2.87501131825256E-2</v>
+      </c>
+      <c r="I7" s="10"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="12"/>
+      <c r="B8" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="29">
+        <v>3.09</v>
+      </c>
+      <c r="D8" s="16">
+        <v>2.9387130073327001</v>
+      </c>
+      <c r="E8" s="16">
+        <v>1.7142674841846299</v>
+      </c>
+      <c r="F8" s="16">
+        <v>1.3535085275154499</v>
+      </c>
+      <c r="G8" s="16">
+        <v>0.112136433256878</v>
+      </c>
+      <c r="H8" s="31">
+        <v>0.11568738841875099</v>
+      </c>
+      <c r="I8" s="10"/>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="12"/>
+      <c r="B9" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="32">
+        <v>3.085</v>
+      </c>
+      <c r="D9" s="33">
+        <v>2.9016382407168302</v>
+      </c>
+      <c r="E9" s="33">
+        <v>1.7034195727174299</v>
+      </c>
+      <c r="F9" s="33">
+        <v>1.3583548986323699</v>
+      </c>
+      <c r="G9" s="33">
+        <v>0.123337708931502</v>
+      </c>
+      <c r="H9" s="34">
+        <v>0.12721976920834799</v>
+      </c>
+      <c r="I9" s="10"/>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="10"/>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="10"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D2:H2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -798,384 +1042,383 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CF61DB6-A292-4B02-82E6-DE6A7068FAA9}">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14:L26"/>
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26.140625" style="18" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" style="20" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="7" customWidth="1"/>
     <col min="12" max="12" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="15"/>
-      <c r="C1" s="27"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="8"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="23" t="s">
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="38">
+        <v>0.40363825429504202</v>
+      </c>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="38">
+        <v>0.39490176506854602</v>
+      </c>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="38">
+        <v>0.34477927933386499</v>
+      </c>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="16" t="s">
+      <c r="C6" s="38">
+        <v>0.32881903532022599</v>
+      </c>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="38">
+        <v>0.32813203990059903</v>
+      </c>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="39">
+        <v>0.32193458389026802</v>
+      </c>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="38">
+        <v>0.32168249708909202</v>
+      </c>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="38">
+        <v>0.31789946673410502</v>
+      </c>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="24">
-        <v>0.18909954055540601</v>
-      </c>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="16" t="s">
+      <c r="C11" s="38">
+        <v>0.31204627074048003</v>
+      </c>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="41">
+        <v>0.31173316376287702</v>
+      </c>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="24">
-        <v>0.16901327560294499</v>
-      </c>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="24">
-        <v>0.162275875683769</v>
-      </c>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="24">
-        <v>0.15921767339505</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="F6" s="28"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="24">
-        <v>0.14928951720346101</v>
-      </c>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="25">
-        <v>0.14656332720651499</v>
-      </c>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="24">
-        <v>0.143953312024834</v>
-      </c>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="24">
-        <v>0.13229119267787301</v>
-      </c>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="24">
-        <v>0.11711738959745301</v>
-      </c>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="26">
-        <v>0.107651044441748</v>
-      </c>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="21"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>9</v>
+      <c r="C15" s="36" t="s">
+        <v>7</v>
       </c>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="24">
-        <v>5.6814207688884399E-2</v>
+    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="38">
+        <v>2.7125400314235E-2</v>
       </c>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="24">
-        <v>2.9489744571389798E-2</v>
+    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="38">
+        <v>2.0719672916748099E-2</v>
       </c>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="24">
-        <v>1.8673879783829402E-2</v>
+    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="38">
+        <v>1.7394548531682898E-2</v>
       </c>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="24">
-        <v>1.7158343886143599E-2</v>
+    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="38">
+        <v>1.45331263588712E-2</v>
       </c>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="24">
-        <v>1.6754787642861001E-2</v>
+    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="38">
+        <v>1.42551251146958E-2</v>
       </c>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="25">
-        <v>1.5268861822795601E-2</v>
+    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="39">
+        <v>1.39363509393194E-2</v>
       </c>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="24">
-        <v>1.41520661297889E-2</v>
+    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="38">
+        <v>1.20201285159139E-2</v>
       </c>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="24">
-        <v>1.25340436831816E-2</v>
+    <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="38">
+        <v>1.04674281032353E-2</v>
       </c>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="24">
-        <v>1.00374068866256E-2</v>
+    <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="38">
+        <v>1.02633159248727E-2</v>
       </c>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="26">
-        <v>9.2005276420024408E-3</v>
+    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="41">
+        <v>9.3201504825728299E-3</v>
       </c>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="21"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="19"/>
+    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="43"/>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="27"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="45"/>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C28" s="23" t="s">
-        <v>9</v>
+    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="36" t="s">
+        <v>7</v>
       </c>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-      <c r="B29" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29" s="24">
-        <v>2.2841589999999998E-2</v>
+    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="38">
+        <v>2.8329086999999999E-2</v>
       </c>
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-      <c r="B30" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30" s="24">
-        <v>1.0474647E-2</v>
+    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="38">
+        <v>2.6587388E-2</v>
       </c>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-      <c r="B31" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C31" s="24">
-        <v>9.5654050000000008E-3</v>
+    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="38">
+        <v>2.3536831000000001E-2</v>
       </c>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
-      <c r="B32" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C32" s="24">
-        <v>8.8796610000000005E-3</v>
+    <row r="32" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+      <c r="B32" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="38">
+        <v>2.0574357000000001E-2</v>
       </c>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
-      <c r="B33" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C33" s="24">
-        <v>8.8780730000000002E-3</v>
+    <row r="33" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" s="38">
+        <v>2.0106379000000001E-2</v>
       </c>
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
-      <c r="B34" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C34" s="25">
-        <v>8.6702840000000003E-3</v>
+    <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+      <c r="B34" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" s="39">
+        <v>1.7664114000000002E-2</v>
       </c>
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
-      <c r="B35" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C35" s="24">
-        <v>8.6537139999999999E-3</v>
+    <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+      <c r="B35" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" s="38">
+        <v>1.6557539E-2</v>
       </c>
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="3"/>
-      <c r="B36" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C36" s="24">
-        <v>8.4819960000000003E-3</v>
+    <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
+      <c r="B36" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" s="38">
+        <v>1.6349664E-2</v>
       </c>
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
-      <c r="B37" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C37" s="24">
-        <v>8.4409489999999997E-3</v>
+    <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="2"/>
+      <c r="B37" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" s="38">
+        <v>1.6166145E-2</v>
       </c>
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="3"/>
-      <c r="B38" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="C38" s="26">
-        <v>8.4285220000000008E-3</v>
+    <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
+      <c r="B38" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" s="41">
+        <v>1.6006920000000001E-2</v>
       </c>
       <c r="D38" s="1"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="21"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="19"/>
+      <c r="A39" s="1"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="6"/>
       <c r="D39" s="1"/>
     </row>
   </sheetData>
